--- a/dataanalysis/data/predictions/1200/09021144_1146.xlsx
+++ b/dataanalysis/data/predictions/1200/09021144_1146.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="125">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-02</t>
   </si>
   <si>
@@ -386,12 +389,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -749,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,19 +855,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-3.5</v>
@@ -888,7 +888,7 @@
         <v>107979.9</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -929,8 +929,23 @@
       <c r="W2">
         <v>-0.42</v>
       </c>
+      <c r="X2">
+        <v>6.21</v>
+      </c>
+      <c r="Y2">
+        <v>22.2</v>
+      </c>
+      <c r="Z2">
+        <v>7.51</v>
+      </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -938,22 +953,25 @@
       <c r="AG2">
         <v>7.020191669464111</v>
       </c>
-      <c r="AH2" t="s">
-        <v>124</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300085</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.26</v>
@@ -971,7 +989,7 @@
         <v>464840.81</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1012,8 +1030,23 @@
       <c r="W3">
         <v>0.21</v>
       </c>
+      <c r="X3">
+        <v>-11.66</v>
+      </c>
+      <c r="Y3">
+        <v>58.88</v>
+      </c>
+      <c r="Z3">
+        <v>-1.87</v>
+      </c>
       <c r="AC3" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1021,22 +1054,25 @@
       <c r="AG3">
         <v>5.657949924468994</v>
       </c>
-      <c r="AH3" t="s">
-        <v>124</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300111</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.56</v>
@@ -1054,7 +1090,7 @@
         <v>30401.96</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1095,8 +1131,23 @@
       <c r="W4">
         <v>0.1</v>
       </c>
+      <c r="X4">
+        <v>2.26</v>
+      </c>
+      <c r="Y4">
+        <v>4.64</v>
+      </c>
+      <c r="Z4">
+        <v>4.74</v>
+      </c>
       <c r="AC4" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1104,22 +1155,25 @@
       <c r="AG4">
         <v>4.636044979095459</v>
       </c>
-      <c r="AH4" t="s">
-        <v>124</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300237</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>1.5</v>
@@ -1137,7 +1191,7 @@
         <v>120306.62</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1178,8 +1232,23 @@
       <c r="W5">
         <v>-3.98</v>
       </c>
+      <c r="X5">
+        <v>-6.7</v>
+      </c>
+      <c r="Y5">
+        <v>3.55</v>
+      </c>
+      <c r="Z5">
+        <v>4.72</v>
+      </c>
       <c r="AC5" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1187,22 +1256,25 @@
       <c r="AG5">
         <v>-0.7331475019454956</v>
       </c>
-      <c r="AH5" t="s">
-        <v>124</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300308</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-5.99</v>
@@ -1220,7 +1292,7 @@
         <v>2005216.87</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>36</v>
@@ -1261,8 +1333,23 @@
       <c r="W6">
         <v>-0.14</v>
       </c>
+      <c r="X6">
+        <v>10.99</v>
+      </c>
+      <c r="Y6">
+        <v>429.99</v>
+      </c>
+      <c r="Z6">
+        <v>12.63</v>
+      </c>
       <c r="AC6" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1270,22 +1357,25 @@
       <c r="AG6">
         <v>-0.390346884727478</v>
       </c>
-      <c r="AH6" t="s">
-        <v>124</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300324</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.15</v>
@@ -1303,7 +1393,7 @@
         <v>410374.96</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1344,8 +1434,23 @@
       <c r="W7">
         <v>-3.66</v>
       </c>
+      <c r="X7">
+        <v>-7.27</v>
+      </c>
+      <c r="Y7">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.12</v>
+      </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1353,22 +1458,25 @@
       <c r="AG7">
         <v>42.26494216918945</v>
       </c>
-      <c r="AH7" t="s">
-        <v>124</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300389</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-9.529999999999999</v>
@@ -1386,7 +1494,7 @@
         <v>41107.5</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1427,8 +1535,23 @@
       <c r="W8">
         <v>0.48</v>
       </c>
+      <c r="X8">
+        <v>-8.44</v>
+      </c>
+      <c r="Y8">
+        <v>16.44</v>
+      </c>
+      <c r="Z8">
+        <v>0.67</v>
+      </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1436,22 +1559,25 @@
       <c r="AG8">
         <v>3.584618091583252</v>
       </c>
-      <c r="AH8" t="s">
-        <v>124</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300394</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-9.029999999999999</v>
@@ -1469,7 +1595,7 @@
         <v>1012028.11</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>26</v>
@@ -1510,8 +1636,23 @@
       <c r="W9">
         <v>-0.36</v>
       </c>
+      <c r="X9">
+        <v>3.08</v>
+      </c>
+      <c r="Y9">
+        <v>211.58</v>
+      </c>
+      <c r="Z9">
+        <v>4.69</v>
+      </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1519,22 +1660,25 @@
       <c r="AG9">
         <v>6.150565624237061</v>
       </c>
-      <c r="AH9" t="s">
-        <v>124</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300418</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>7.44</v>
@@ -1552,7 +1696,7 @@
         <v>616306.0699999999</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1593,8 +1737,23 @@
       <c r="W10">
         <v>1.05</v>
       </c>
+      <c r="X10">
+        <v>-2.76</v>
+      </c>
+      <c r="Y10">
+        <v>45.82</v>
+      </c>
+      <c r="Z10">
+        <v>2.35</v>
+      </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1602,22 +1761,25 @@
       <c r="AG10">
         <v>-20.66014099121094</v>
       </c>
-      <c r="AH10" t="s">
-        <v>124</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300450</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>8.75</v>
@@ -1635,7 +1797,7 @@
         <v>697665.08</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1676,8 +1838,23 @@
       <c r="W11">
         <v>-0.03</v>
       </c>
+      <c r="X11">
+        <v>0.37</v>
+      </c>
+      <c r="Y11">
+        <v>46.98</v>
+      </c>
+      <c r="Z11">
+        <v>6.15</v>
+      </c>
       <c r="AC11" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1685,22 +1862,25 @@
       <c r="AG11">
         <v>23.11668014526367</v>
       </c>
-      <c r="AH11" t="s">
-        <v>124</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300457</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.04</v>
@@ -1718,7 +1898,7 @@
         <v>128152.13</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1759,8 +1939,23 @@
       <c r="W12">
         <v>0.31</v>
       </c>
+      <c r="X12">
+        <v>2.66</v>
+      </c>
+      <c r="Y12">
+        <v>30.88</v>
+      </c>
+      <c r="Z12">
+        <v>15.44</v>
+      </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1768,22 +1963,25 @@
       <c r="AG12">
         <v>102.0651321411133</v>
       </c>
-      <c r="AH12" t="s">
-        <v>125</v>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300465</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-3.31</v>
@@ -1801,7 +1999,7 @@
         <v>229950.98</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1842,8 +2040,23 @@
       <c r="W13">
         <v>-0.48</v>
       </c>
+      <c r="X13">
+        <v>-6.98</v>
+      </c>
+      <c r="Y13">
+        <v>26.86</v>
+      </c>
+      <c r="Z13">
+        <v>-1.14</v>
+      </c>
       <c r="AC13" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1851,22 +2064,25 @@
       <c r="AG13">
         <v>3.215394735336304</v>
       </c>
-      <c r="AH13" t="s">
-        <v>124</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300469</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1884,7 +2100,7 @@
         <v>59171.24</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1925,8 +2141,23 @@
       <c r="W14">
         <v>0.1</v>
       </c>
+      <c r="X14">
+        <v>9.75</v>
+      </c>
+      <c r="Y14">
+        <v>68.88</v>
+      </c>
+      <c r="Z14">
+        <v>15.42</v>
+      </c>
       <c r="AC14" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1934,22 +2165,25 @@
       <c r="AG14">
         <v>4.484415531158447</v>
       </c>
-      <c r="AH14" t="s">
-        <v>124</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300475</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-5.16</v>
@@ -1967,7 +2201,7 @@
         <v>104885.72</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2008,8 +2242,23 @@
       <c r="W15">
         <v>-0.33</v>
       </c>
+      <c r="X15">
+        <v>0.32</v>
+      </c>
+      <c r="Y15">
+        <v>46.12</v>
+      </c>
+      <c r="Z15">
+        <v>3.69</v>
+      </c>
       <c r="AC15" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2017,22 +2266,25 @@
       <c r="AG15">
         <v>0.5467430949211121</v>
       </c>
-      <c r="AH15" t="s">
-        <v>124</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300476</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-2.43</v>
@@ -2050,7 +2302,7 @@
         <v>1650927.1</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2091,8 +2343,23 @@
       <c r="W16">
         <v>-0.02</v>
       </c>
+      <c r="X16">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>277.77</v>
+      </c>
+      <c r="Z16">
+        <v>5.3</v>
+      </c>
       <c r="AC16" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2100,22 +2367,25 @@
       <c r="AG16">
         <v>6.857728958129883</v>
       </c>
-      <c r="AH16" t="s">
-        <v>124</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300486</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-1.08</v>
@@ -2133,7 +2403,7 @@
         <v>129851.9</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -2174,8 +2444,23 @@
       <c r="W17">
         <v>-0.28</v>
       </c>
+      <c r="X17">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>27.5</v>
+      </c>
+      <c r="Z17">
+        <v>15.16</v>
+      </c>
       <c r="AC17" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2183,22 +2468,25 @@
       <c r="AG17">
         <v>-0.9704417586326599</v>
       </c>
-      <c r="AH17" t="s">
-        <v>124</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300491</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-3.44</v>
@@ -2216,7 +2504,7 @@
         <v>39591.4</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2257,8 +2545,23 @@
       <c r="W18">
         <v>0.18</v>
       </c>
+      <c r="X18">
+        <v>-2.82</v>
+      </c>
+      <c r="Y18">
+        <v>38.38</v>
+      </c>
+      <c r="Z18">
+        <v>1.88</v>
+      </c>
       <c r="AC18" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2266,22 +2569,25 @@
       <c r="AG18">
         <v>0.169816717505455</v>
       </c>
-      <c r="AH18" t="s">
-        <v>124</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-8.460000000000001</v>
@@ -2299,7 +2605,7 @@
         <v>2080584.91</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <v>50</v>
@@ -2340,8 +2646,23 @@
       <c r="W19">
         <v>-0.51</v>
       </c>
+      <c r="X19">
+        <v>3.21</v>
+      </c>
+      <c r="Y19">
+        <v>382</v>
+      </c>
+      <c r="Z19">
+        <v>7.42</v>
+      </c>
       <c r="AC19" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2349,22 +2670,25 @@
       <c r="AG19">
         <v>0.859961986541748</v>
       </c>
-      <c r="AH19" t="s">
-        <v>124</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300548</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-6</v>
@@ -2382,7 +2706,7 @@
         <v>315119.85</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>36</v>
@@ -2423,8 +2747,23 @@
       <c r="W20">
         <v>-0.47</v>
       </c>
+      <c r="X20">
+        <v>4.21</v>
+      </c>
+      <c r="Y20">
+        <v>138.9</v>
+      </c>
+      <c r="Z20">
+        <v>2.43</v>
+      </c>
       <c r="AC20" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2432,22 +2771,25 @@
       <c r="AG20">
         <v>3.414458036422729</v>
       </c>
-      <c r="AH20" t="s">
-        <v>124</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300573</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-0.85</v>
@@ -2465,7 +2807,7 @@
         <v>188402.85</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2506,8 +2848,23 @@
       <c r="W21">
         <v>-0.15</v>
       </c>
+      <c r="X21">
+        <v>-3.04</v>
+      </c>
+      <c r="Y21">
+        <v>78.38</v>
+      </c>
+      <c r="Z21">
+        <v>1.95</v>
+      </c>
       <c r="AC21" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2515,22 +2872,25 @@
       <c r="AG21">
         <v>-2.193283796310425</v>
       </c>
-      <c r="AH21" t="s">
-        <v>124</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300584</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>11.16</v>
@@ -2548,7 +2908,7 @@
         <v>103717.36</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>16</v>
@@ -2589,8 +2949,23 @@
       <c r="W22">
         <v>-0.57</v>
       </c>
+      <c r="X22">
+        <v>-2.25</v>
+      </c>
+      <c r="Y22">
+        <v>69.17</v>
+      </c>
+      <c r="Z22">
+        <v>-2.59</v>
+      </c>
       <c r="AC22" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2598,22 +2973,25 @@
       <c r="AG22">
         <v>1.846585512161255</v>
       </c>
-      <c r="AH22" t="s">
-        <v>124</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300604</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-5.42</v>
@@ -2631,7 +3009,7 @@
         <v>225449.86</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2672,8 +3050,23 @@
       <c r="W23">
         <v>-0.78</v>
       </c>
+      <c r="X23">
+        <v>0.76</v>
+      </c>
+      <c r="Y23">
+        <v>61.43</v>
+      </c>
+      <c r="Z23">
+        <v>3.92</v>
+      </c>
       <c r="AC23" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2681,22 +3074,25 @@
       <c r="AG23">
         <v>5.502958297729492</v>
       </c>
-      <c r="AH23" t="s">
-        <v>124</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300620</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-6.81</v>
@@ -2714,7 +3110,7 @@
         <v>300336.41</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K24">
         <v>16</v>
@@ -2755,8 +3151,23 @@
       <c r="W24">
         <v>-0.38</v>
       </c>
+      <c r="X24">
+        <v>5.54</v>
+      </c>
+      <c r="Y24">
+        <v>109.8</v>
+      </c>
+      <c r="Z24">
+        <v>6.57</v>
+      </c>
       <c r="AC24" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2764,22 +3175,25 @@
       <c r="AG24">
         <v>1.498142242431641</v>
       </c>
-      <c r="AH24" t="s">
-        <v>124</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300724</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.62</v>
@@ -2797,7 +3211,7 @@
         <v>365303.73</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -2838,8 +3252,23 @@
       <c r="W25">
         <v>-0.54</v>
       </c>
+      <c r="X25">
+        <v>1.94</v>
+      </c>
+      <c r="Y25">
+        <v>114.68</v>
+      </c>
+      <c r="Z25">
+        <v>2.37</v>
+      </c>
       <c r="AC25" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2847,22 +3276,25 @@
       <c r="AG25">
         <v>4.813270092010498</v>
       </c>
-      <c r="AH25" t="s">
-        <v>124</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300790</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-3.85</v>
@@ -2880,7 +3312,7 @@
         <v>71554.60000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2921,8 +3353,23 @@
       <c r="W26">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X26">
+        <v>-0.59</v>
+      </c>
+      <c r="Y26">
+        <v>33.03</v>
+      </c>
+      <c r="Z26">
+        <v>2.58</v>
+      </c>
       <c r="AC26" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2930,22 +3377,25 @@
       <c r="AG26">
         <v>4.152772903442383</v>
       </c>
-      <c r="AH26" t="s">
-        <v>124</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300797</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>5.63</v>
@@ -2963,7 +3413,7 @@
         <v>78256.69</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3004,8 +3454,23 @@
       <c r="W27">
         <v>0.2</v>
       </c>
+      <c r="X27">
+        <v>-6.73</v>
+      </c>
+      <c r="Y27">
+        <v>19.61</v>
+      </c>
+      <c r="Z27">
+        <v>-3.26</v>
+      </c>
       <c r="AC27" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3013,22 +3478,25 @@
       <c r="AG27">
         <v>2.975648403167725</v>
       </c>
-      <c r="AH27" t="s">
-        <v>124</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300843</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-8.67</v>
@@ -3046,7 +3514,7 @@
         <v>74352.3</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -3087,8 +3555,23 @@
       <c r="W28">
         <v>-1.19</v>
       </c>
+      <c r="X28">
+        <v>-6.23</v>
+      </c>
+      <c r="Y28">
+        <v>57.81</v>
+      </c>
+      <c r="Z28">
+        <v>-2.66</v>
+      </c>
       <c r="AC28" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3096,22 +3579,25 @@
       <c r="AG28">
         <v>3.918273687362671</v>
       </c>
-      <c r="AH28" t="s">
-        <v>124</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301031</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-7.15</v>
@@ -3129,7 +3615,7 @@
         <v>88037.16</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3170,8 +3656,23 @@
       <c r="W29">
         <v>1.41</v>
       </c>
+      <c r="X29">
+        <v>6.85</v>
+      </c>
+      <c r="Y29">
+        <v>116.66</v>
+      </c>
+      <c r="Z29">
+        <v>12.47</v>
+      </c>
       <c r="AC29" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3179,22 +3680,25 @@
       <c r="AG29">
         <v>0.09020557999610901</v>
       </c>
-      <c r="AH29" t="s">
-        <v>124</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301183</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-8.27</v>
@@ -3212,7 +3716,7 @@
         <v>106137.19</v>
       </c>
       <c r="J30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K30">
         <v>11</v>
@@ -3253,8 +3757,23 @@
       <c r="W30">
         <v>-2.08</v>
       </c>
+      <c r="X30">
+        <v>-0.76</v>
+      </c>
+      <c r="Y30">
+        <v>106.89</v>
+      </c>
+      <c r="Z30">
+        <v>3.12</v>
+      </c>
       <c r="AC30" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3262,22 +3781,25 @@
       <c r="AG30">
         <v>-0.595427393913269</v>
       </c>
-      <c r="AH30" t="s">
-        <v>124</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301219</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-2.84</v>
@@ -3295,7 +3817,7 @@
         <v>61453.27</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -3336,8 +3858,23 @@
       <c r="W31">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X31">
+        <v>-2.67</v>
+      </c>
+      <c r="Y31">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="Z31">
+        <v>1.33</v>
+      </c>
       <c r="AC31" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3345,22 +3882,25 @@
       <c r="AG31">
         <v>6.616460800170898</v>
       </c>
-      <c r="AH31" t="s">
-        <v>124</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301316</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-4.78</v>
@@ -3378,7 +3918,7 @@
         <v>140342.69</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3419,8 +3959,23 @@
       <c r="W32">
         <v>-0.43</v>
       </c>
+      <c r="X32">
+        <v>-1.84</v>
+      </c>
+      <c r="Y32">
+        <v>67.5</v>
+      </c>
+      <c r="Z32">
+        <v>8.52</v>
+      </c>
       <c r="AC32" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3428,22 +3983,25 @@
       <c r="AG32">
         <v>2.120030641555786</v>
       </c>
-      <c r="AH32" t="s">
-        <v>124</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301357</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.85</v>
@@ -3461,7 +4019,7 @@
         <v>86051.27</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3502,8 +4060,23 @@
       <c r="W33">
         <v>-1.4</v>
       </c>
+      <c r="X33">
+        <v>-20</v>
+      </c>
+      <c r="Y33">
+        <v>198</v>
+      </c>
+      <c r="Z33">
+        <v>7.94</v>
+      </c>
       <c r="AC33" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3511,22 +4084,25 @@
       <c r="AG33">
         <v>2.939750671386719</v>
       </c>
-      <c r="AH33" t="s">
-        <v>124</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301389</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-11.2</v>
@@ -3544,7 +4120,7 @@
         <v>135704.13</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K34">
         <v>41</v>
@@ -3585,8 +4161,23 @@
       <c r="W34">
         <v>-4.1</v>
       </c>
+      <c r="X34">
+        <v>-3.25</v>
+      </c>
+      <c r="Y34">
+        <v>67.2</v>
+      </c>
+      <c r="Z34">
+        <v>1.51</v>
+      </c>
       <c r="AC34" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3594,22 +4185,25 @@
       <c r="AG34">
         <v>-0.1344566345214844</v>
       </c>
-      <c r="AH34" t="s">
-        <v>124</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301488</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>5.14</v>
@@ -3627,7 +4221,7 @@
         <v>94935.50999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3668,8 +4262,23 @@
       <c r="W35">
         <v>0.8</v>
       </c>
+      <c r="X35">
+        <v>-0.03</v>
+      </c>
+      <c r="Y35">
+        <v>143.9</v>
+      </c>
+      <c r="Z35">
+        <v>16.98</v>
+      </c>
       <c r="AC35" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3677,22 +4286,25 @@
       <c r="AG35">
         <v>9.569058418273926</v>
       </c>
-      <c r="AH35" t="s">
-        <v>124</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301489</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-5.55</v>
@@ -3710,7 +4322,7 @@
         <v>45903.77</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36">
         <v>24</v>
@@ -3751,8 +4363,23 @@
       <c r="W36">
         <v>-0.02</v>
       </c>
+      <c r="X36">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y36">
+        <v>216</v>
+      </c>
+      <c r="Z36">
+        <v>6.4</v>
+      </c>
       <c r="AC36" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3760,22 +4387,25 @@
       <c r="AG36">
         <v>4.641067981719971</v>
       </c>
-      <c r="AH36" t="s">
-        <v>124</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688041</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-4.47</v>
@@ -3793,7 +4423,7 @@
         <v>764302.49</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3834,8 +4464,23 @@
       <c r="W37">
         <v>-0.1</v>
       </c>
+      <c r="X37">
+        <v>-3.42</v>
+      </c>
+      <c r="Y37">
+        <v>199.39</v>
+      </c>
+      <c r="Z37">
+        <v>-0.11</v>
+      </c>
       <c r="AC37" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3843,22 +4488,25 @@
       <c r="AG37">
         <v>155.3390502929688</v>
       </c>
-      <c r="AH37" t="s">
-        <v>124</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688062</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>1.13</v>
@@ -3876,7 +4524,7 @@
         <v>164327.91</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -3917,8 +4565,23 @@
       <c r="W38">
         <v>-1.11</v>
       </c>
+      <c r="X38">
+        <v>1.35</v>
+      </c>
+      <c r="Y38">
+        <v>61.39</v>
+      </c>
+      <c r="Z38">
+        <v>5.39</v>
+      </c>
       <c r="AC38" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3926,22 +4589,25 @@
       <c r="AG38">
         <v>6.124977588653564</v>
       </c>
-      <c r="AH38" t="s">
-        <v>124</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688066</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.9</v>
@@ -3959,7 +4625,7 @@
         <v>65604.8</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -4000,8 +4666,23 @@
       <c r="W39">
         <v>0.25</v>
       </c>
+      <c r="X39">
+        <v>-7.94</v>
+      </c>
+      <c r="Y39">
+        <v>38.66</v>
+      </c>
+      <c r="Z39">
+        <v>6.59</v>
+      </c>
       <c r="AC39" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4009,22 +4690,25 @@
       <c r="AG39">
         <v>6.456978797912598</v>
       </c>
-      <c r="AH39" t="s">
-        <v>124</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688135</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>5.08</v>
@@ -4042,7 +4726,7 @@
         <v>102538.21</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4083,8 +4767,23 @@
       <c r="W40">
         <v>-0.93</v>
       </c>
+      <c r="X40">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>31.85</v>
+      </c>
+      <c r="Z40">
+        <v>6.13</v>
+      </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4092,22 +4791,25 @@
       <c r="AG40">
         <v>1.01842188835144</v>
       </c>
-      <c r="AH40" t="s">
-        <v>124</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688155</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.3</v>
@@ -4125,7 +4827,7 @@
         <v>43550.31</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4166,8 +4868,23 @@
       <c r="W41">
         <v>0.31</v>
       </c>
+      <c r="X41">
+        <v>-2.15</v>
+      </c>
+      <c r="Y41">
+        <v>66.84</v>
+      </c>
+      <c r="Z41">
+        <v>1.35</v>
+      </c>
       <c r="AC41" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4175,22 +4892,25 @@
       <c r="AG41">
         <v>6.40186595916748</v>
       </c>
-      <c r="AH41" t="s">
-        <v>124</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688168</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-4.04</v>
@@ -4208,7 +4928,7 @@
         <v>44462.44</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K42">
         <v>7</v>
@@ -4249,8 +4969,23 @@
       <c r="W42">
         <v>-0.5</v>
       </c>
+      <c r="X42">
+        <v>-0.44</v>
+      </c>
+      <c r="Y42">
+        <v>112.98</v>
+      </c>
+      <c r="Z42">
+        <v>8.25</v>
+      </c>
       <c r="AC42" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4258,22 +4993,25 @@
       <c r="AG42">
         <v>7.860445499420166</v>
       </c>
-      <c r="AH42" t="s">
-        <v>124</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688195</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>7.25</v>
@@ -4291,7 +5029,7 @@
         <v>119585.69</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K43">
         <v>12</v>
@@ -4332,8 +5070,23 @@
       <c r="W43">
         <v>0.86</v>
       </c>
+      <c r="X43">
+        <v>0.06</v>
+      </c>
+      <c r="Y43">
+        <v>88</v>
+      </c>
+      <c r="Z43">
+        <v>-4.03</v>
+      </c>
       <c r="AC43" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4341,22 +5094,25 @@
       <c r="AG43">
         <v>1.964190006256104</v>
       </c>
-      <c r="AH43" t="s">
-        <v>124</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688201</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-5.53</v>
@@ -4374,7 +5130,7 @@
         <v>30743.3</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4415,8 +5171,23 @@
       <c r="W44">
         <v>-1.29</v>
       </c>
+      <c r="X44">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>15.95</v>
+      </c>
+      <c r="Z44">
+        <v>8.5</v>
+      </c>
       <c r="AC44" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4424,22 +5195,25 @@
       <c r="AG44">
         <v>2.675631523132324</v>
       </c>
-      <c r="AH44" t="s">
-        <v>124</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688228</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-7.59</v>
@@ -4457,7 +5231,7 @@
         <v>83025.47</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -4498,8 +5272,23 @@
       <c r="W45">
         <v>-0.87</v>
       </c>
+      <c r="X45">
+        <v>0.57</v>
+      </c>
+      <c r="Y45">
+        <v>133.99</v>
+      </c>
+      <c r="Z45">
+        <v>-0.01</v>
+      </c>
       <c r="AC45" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4507,22 +5296,25 @@
       <c r="AG45">
         <v>4.524097442626953</v>
       </c>
-      <c r="AH45" t="s">
-        <v>124</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688235</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>9.84</v>
@@ -4540,7 +5332,7 @@
         <v>304927.87</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4581,8 +5373,23 @@
       <c r="W46">
         <v>0.45</v>
       </c>
+      <c r="X46">
+        <v>0.38</v>
+      </c>
+      <c r="Y46">
+        <v>330</v>
+      </c>
+      <c r="Z46">
+        <v>0.15</v>
+      </c>
       <c r="AC46" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4590,22 +5397,25 @@
       <c r="AG46">
         <v>-25.83614349365234</v>
       </c>
-      <c r="AH46" t="s">
-        <v>124</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688256</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.12</v>
@@ -4623,7 +5433,7 @@
         <v>1854279.48</v>
       </c>
       <c r="J47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -4664,8 +5474,23 @@
       <c r="W47">
         <v>0.02</v>
       </c>
+      <c r="X47">
+        <v>-5.07</v>
+      </c>
+      <c r="Y47">
+        <v>1439</v>
+      </c>
+      <c r="Z47">
+        <v>-0.77</v>
+      </c>
       <c r="AC47" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4673,22 +5498,25 @@
       <c r="AG47">
         <v>3.988633632659912</v>
       </c>
-      <c r="AH47" t="s">
-        <v>124</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688286</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.86</v>
@@ -4706,7 +5534,7 @@
         <v>35143.77</v>
       </c>
       <c r="J48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4747,8 +5575,23 @@
       <c r="W48">
         <v>0.03</v>
       </c>
+      <c r="X48">
+        <v>2.2</v>
+      </c>
+      <c r="Y48">
+        <v>113.8</v>
+      </c>
+      <c r="Z48">
+        <v>16.38</v>
+      </c>
       <c r="AC48" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4756,22 +5599,25 @@
       <c r="AG48">
         <v>7.46026611328125</v>
       </c>
-      <c r="AH48" t="s">
-        <v>125</v>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688299</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-4.98</v>
@@ -4789,7 +5635,7 @@
         <v>65356.12</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4830,8 +5676,23 @@
       <c r="W49">
         <v>-0.96</v>
       </c>
+      <c r="X49">
+        <v>-2.32</v>
+      </c>
+      <c r="Y49">
+        <v>25.45</v>
+      </c>
+      <c r="Z49">
+        <v>8.529999999999999</v>
+      </c>
       <c r="AC49" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4839,22 +5700,25 @@
       <c r="AG49">
         <v>2.378596067428589</v>
       </c>
-      <c r="AH49" t="s">
-        <v>124</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688313</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-4.8</v>
@@ -4872,7 +5736,7 @@
         <v>287829.15</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K50">
         <v>16</v>
@@ -4913,8 +5777,23 @@
       <c r="W50">
         <v>-0.17</v>
       </c>
+      <c r="X50">
+        <v>4.73</v>
+      </c>
+      <c r="Y50">
+        <v>84.97</v>
+      </c>
+      <c r="Z50">
+        <v>6.91</v>
+      </c>
       <c r="AC50" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4922,22 +5801,25 @@
       <c r="AG50">
         <v>1.101649403572083</v>
       </c>
-      <c r="AH50" t="s">
-        <v>124</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688331</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-3.83</v>
@@ -4955,7 +5837,7 @@
         <v>75293.31</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -4996,8 +5878,23 @@
       <c r="W51">
         <v>-0.42</v>
       </c>
+      <c r="X51">
+        <v>-0.31</v>
+      </c>
+      <c r="Y51">
+        <v>95.3</v>
+      </c>
+      <c r="Z51">
+        <v>2.35</v>
+      </c>
       <c r="AC51" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5005,22 +5902,25 @@
       <c r="AG51">
         <v>5.298942565917969</v>
       </c>
-      <c r="AH51" t="s">
-        <v>124</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688343</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.84</v>
@@ -5038,7 +5938,7 @@
         <v>207785.2</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -5079,8 +5979,23 @@
       <c r="W52">
         <v>-0.75</v>
       </c>
+      <c r="X52">
+        <v>-3.91</v>
+      </c>
+      <c r="Y52">
+        <v>93</v>
+      </c>
+      <c r="Z52">
+        <v>-2.12</v>
+      </c>
       <c r="AC52" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5088,22 +6003,25 @@
       <c r="AG52">
         <v>5.655131816864014</v>
       </c>
-      <c r="AH52" t="s">
-        <v>124</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688347</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-8.869999999999999</v>
@@ -5121,7 +6039,7 @@
         <v>362599.83</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -5162,8 +6080,23 @@
       <c r="W53">
         <v>-1.25</v>
       </c>
+      <c r="X53">
+        <v>1.42</v>
+      </c>
+      <c r="Y53">
+        <v>80.66</v>
+      </c>
+      <c r="Z53">
+        <v>3.26</v>
+      </c>
       <c r="AC53" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5171,22 +6104,25 @@
       <c r="AG53">
         <v>3.192331314086914</v>
       </c>
-      <c r="AH53" t="s">
-        <v>124</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688388</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>11.01</v>
@@ -5204,7 +6140,7 @@
         <v>179831.94</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5245,8 +6181,23 @@
       <c r="W54">
         <v>-0.05</v>
       </c>
+      <c r="X54">
+        <v>-1.35</v>
+      </c>
+      <c r="Y54">
+        <v>32.1</v>
+      </c>
+      <c r="Z54">
+        <v>2.72</v>
+      </c>
       <c r="AC54" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5254,22 +6205,25 @@
       <c r="AG54">
         <v>18.22120475769043</v>
       </c>
-      <c r="AH54" t="s">
-        <v>124</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688400</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>5.07</v>
@@ -5287,7 +6241,7 @@
         <v>128653.98</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5328,8 +6282,23 @@
       <c r="W55">
         <v>0.79</v>
       </c>
+      <c r="X55">
+        <v>1.99</v>
+      </c>
+      <c r="Y55">
+        <v>43.69</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
       <c r="AC55" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5337,22 +6306,25 @@
       <c r="AG55">
         <v>5.70703649520874</v>
       </c>
-      <c r="AH55" t="s">
-        <v>124</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688498</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5370,7 +6342,7 @@
         <v>208106.2</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K56">
         <v>16</v>
@@ -5411,8 +6383,23 @@
       <c r="W56">
         <v>-0.76</v>
       </c>
+      <c r="X56">
+        <v>13.01</v>
+      </c>
+      <c r="Y56">
+        <v>422.4</v>
+      </c>
+      <c r="Z56">
+        <v>17.72</v>
+      </c>
       <c r="AC56" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5420,22 +6407,25 @@
       <c r="AG56">
         <v>7.276077747344971</v>
       </c>
-      <c r="AH56" t="s">
-        <v>124</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688591</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-4.93</v>
@@ -5453,7 +6443,7 @@
         <v>83844.39999999999</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -5494,8 +6484,23 @@
       <c r="W57">
         <v>-0.75</v>
       </c>
+      <c r="X57">
+        <v>-5.01</v>
+      </c>
+      <c r="Y57">
+        <v>56.98</v>
+      </c>
+      <c r="Z57">
+        <v>2.5</v>
+      </c>
       <c r="AC57" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5503,22 +6508,25 @@
       <c r="AG57">
         <v>3.238169193267822</v>
       </c>
-      <c r="AH57" t="s">
-        <v>124</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688629</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-9.970000000000001</v>
@@ -5536,7 +6544,7 @@
         <v>167772.86</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K58">
         <v>7</v>
@@ -5577,8 +6585,23 @@
       <c r="W58">
         <v>-1.52</v>
       </c>
+      <c r="X58">
+        <v>0.64</v>
+      </c>
+      <c r="Y58">
+        <v>89.31</v>
+      </c>
+      <c r="Z58">
+        <v>1.66</v>
+      </c>
       <c r="AC58" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5586,22 +6609,25 @@
       <c r="AG58">
         <v>0.6258531212806702</v>
       </c>
-      <c r="AH58" t="s">
-        <v>124</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688709</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>11.95</v>
@@ -5619,7 +6645,7 @@
         <v>129359.1</v>
       </c>
       <c r="J59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K59">
         <v>8</v>
@@ -5660,8 +6686,23 @@
       <c r="W59">
         <v>-0.29</v>
       </c>
+      <c r="X59">
+        <v>14.97</v>
+      </c>
+      <c r="Y59">
+        <v>59.39</v>
+      </c>
+      <c r="Z59">
+        <v>15.28</v>
+      </c>
       <c r="AC59" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5669,8 +6710,11 @@
       <c r="AG59">
         <v>-1.286238074302673</v>
       </c>
-      <c r="AH59" t="s">
-        <v>124</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
